--- a/data/dataSets/dataSets.xlsx
+++ b/data/dataSets/dataSets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dataSets" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Personendatensatz des Studienberechtigtenpanels 2008</t>
   </si>
   <si>
-    <t>Personendatensatz des Studienberechtigtenpanels 2009</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>onsite-suf</t>
   </si>
   <si>
-    <t>Studienberechtigtenpanel 2008 -Personendatensatz</t>
-  </si>
-  <si>
     <t>remote-desktop-suf</t>
   </si>
   <si>
@@ -94,6 +88,12 @@
   </si>
   <si>
     <t>gsl2008_r_1-0-0</t>
+  </si>
+  <si>
+    <t>Individual data DZHW Panel Study of School Leavers 2008</t>
+  </si>
+  <si>
+    <t>Studienberechtigtenpanel 2008 - Personendatensatz</t>
   </si>
 </sst>
 </file>
@@ -200,7 +200,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -212,6 +212,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -524,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1582"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +547,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -559,24 +562,24 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -585,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5323,8 +5326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5333,23 +5336,23 @@
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="47.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
     <col min="6" max="6" width="46.5703125" customWidth="1"/>
     <col min="7" max="1026" width="10.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -5358,14 +5361,14 @@
         <v>1</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4">
         <v>32621</v>
@@ -5374,21 +5377,21 @@
         <v>1165</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
+      <c r="E2" s="7" t="s">
+        <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4">
         <v>32621</v>
@@ -5397,13 +5400,13 @@
         <v>1100</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
+      <c r="E3" s="7" t="s">
+        <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
+      <c r="F3" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -5452,10 +5455,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -5464,10 +5467,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/dataSets/dataSets.xlsx
+++ b/data/dataSets/dataSets.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>description.de</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Personal Record</t>
-  </si>
-  <si>
-    <t>Personendatensatz des Studienberechtigtenpanels 2008</t>
   </si>
   <si>
     <t>number</t>
@@ -90,10 +87,19 @@
     <t>gsl2008_r_1-0-0</t>
   </si>
   <si>
-    <t>Individual data DZHW Panel Study of School Leavers 2008</t>
+    <t>DZHW-Studienberechtigtenpanel 2008 - Personendatensatz</t>
   </si>
   <si>
-    <t>Studienberechtigtenpanel 2008 - Personendatensatz</t>
+    <t xml:space="preserve">DZHW Panel Study of School Leavers 2008 - Individual data </t>
+  </si>
+  <si>
+    <t>DZHW Panel Study of School Leavers 2008 - Individual data</t>
+  </si>
+  <si>
+    <t>Personendatensatz des DZHW-Studienberechtigtenpanels 2008</t>
+  </si>
+  <si>
+    <t>Individual data of the DZHW Panel Study of School Leavers 2008</t>
   </si>
 </sst>
 </file>
@@ -528,7 +534,7 @@
   <dimension ref="A1:H1582"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +553,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -562,13 +568,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -576,10 +582,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -588,7 +594,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5327,7 +5333,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5343,16 +5349,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -5361,14 +5367,14 @@
         <v>1</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4">
         <v>32621</v>
@@ -5377,10 +5383,10 @@
         <v>1165</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>24</v>
@@ -5391,7 +5397,7 @@
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4">
         <v>32621</v>
@@ -5400,13 +5406,13 @@
         <v>1100</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -5455,10 +5461,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -5467,10 +5473,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/dataSets/dataSets.xlsx
+++ b/data/dataSets/dataSets.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>description.de</t>
   </si>
@@ -78,28 +78,34 @@
     <t>language</t>
   </si>
   <si>
-    <t>numberOfAnalyzedVariables</t>
-  </si>
-  <si>
     <t>gsl2008_o_1-0-0</t>
   </si>
   <si>
     <t>gsl2008_r_1-0-0</t>
   </si>
   <si>
-    <t>DZHW-Studienberechtigtenpanel 2008 - Personendatensatz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZHW Panel Study of School Leavers 2008 - Individual data </t>
-  </si>
-  <si>
-    <t>DZHW Panel Study of School Leavers 2008 - Individual data</t>
-  </si>
-  <si>
     <t>Personendatensatz des DZHW-Studienberechtigtenpanels 2008</t>
   </si>
   <si>
     <t>Individual data of the DZHW Panel Study of School Leavers 2008</t>
+  </si>
+  <si>
+    <t>Kann über Remote Desktop genutzt werden</t>
+  </si>
+  <si>
+    <t>can be used via remote desktop</t>
+  </si>
+  <si>
+    <t>Ist am Gastwissenschaftlerarbeitsplatz im DZHW in Hannover verfügbar</t>
+  </si>
+  <si>
+    <t>available at the workspace for visiting scientists at the DZHW in Hannover</t>
+  </si>
+  <si>
+    <t>breit</t>
+  </si>
+  <si>
+    <t>wide</t>
   </si>
 </sst>
 </file>
@@ -109,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -168,6 +174,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -206,7 +219,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -221,6 +234,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -534,7 +554,7 @@
   <dimension ref="A1:H1582"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,14 +587,14 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
+      <c r="F1" t="s">
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="H1" t="s">
-        <v>14</v>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -582,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -594,8 +614,24 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
@@ -5330,24 +5366,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.42578125" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
     <col min="6" max="6" width="46.5703125" customWidth="1"/>
     <col min="7" max="1026" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -5355,85 +5391,63 @@
         <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4">
         <v>32621</v>
       </c>
-      <c r="C2" s="4">
-        <v>1165</v>
+      <c r="C2" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>23</v>
+      <c r="E2" s="10" t="s">
+        <v>27</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2">
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4">
         <v>32621</v>
       </c>
-      <c r="C3" s="4">
-        <v>1100</v>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G3">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/data/dataSets/dataSets.xlsx
+++ b/data/dataSets/dataSets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dataSets" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -231,9 +231,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -553,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1582"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +628,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
@@ -5366,10 +5363,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5405,49 +5402,45 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4">
         <v>32621</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>15</v>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>27</v>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4">
         <v>32621</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>16</v>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>25</v>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/data/dataSets/dataSets.xlsx
+++ b/data/dataSets/dataSets.xlsx
@@ -11,7 +11,7 @@
     <sheet name="subDataSets" sheetId="2" r:id="rId2"/>
     <sheet name="attachments" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -5366,7 +5366,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5407,7 +5407,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="4">
-        <v>32621</v>
+        <v>28182</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>16</v>
@@ -5427,7 +5427,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="4">
-        <v>32621</v>
+        <v>28182</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>15</v>

--- a/data/dataSets/dataSets.xlsx
+++ b/data/dataSets/dataSets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dataSets" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Personendatensatz</t>
-  </si>
-  <si>
-    <t>Personal Record</t>
   </si>
   <si>
     <t>number</t>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>wide</t>
+  </si>
+  <si>
+    <t>Individual Data</t>
   </si>
 </sst>
 </file>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1582"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -599,25 +599,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5365,7 +5365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5382,13 +5382,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -5397,26 +5397,26 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4">
         <v>28182</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -5424,19 +5424,19 @@
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4">
         <v>28182</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -5468,10 +5468,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -5480,10 +5480,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/dataSets/dataSets.xlsx
+++ b/data/dataSets/dataSets.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>description.de</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Individual Data</t>
+  </si>
+  <si>
+    <t>annotations.de</t>
+  </si>
+  <si>
+    <t>annotations.en</t>
   </si>
 </sst>
 </file>
@@ -548,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1582"/>
+  <dimension ref="A1:J1582"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +574,7 @@
     <col min="11" max="1024" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -593,8 +599,14 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -620,7 +632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -630,31 +642,31 @@
       <c r="G3" s="4"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">

--- a/data/dataSets/dataSets.xlsx
+++ b/data/dataSets/dataSets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dataSets" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>description.de</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>annotations.en</t>
+  </si>
+  <si>
+    <t>citationHint.de</t>
+  </si>
+  <si>
+    <t>citationHint.en</t>
+  </si>
+  <si>
+    <t>Heine, C., Quast, H., Spangenberg, H., Lörz, M., Scheller, P. &amp; Willich, J. (2014). DZHW-Studienberechtigtenpanel 2008. Aufbereitet durch Daniel, A., Hoffstätter, U., Huß, B. &amp; Scheller, P., doi: 10.21249/DZHW:gsl2008:1.0.0, gsl2008_r_1-0-0, released 2017. Hannover: FDZ-DZHW.</t>
+  </si>
+  <si>
+    <t>Heine, C., Quast, H., Spangenberg, H., Lörz, M., Scheller, P. &amp; Willich, J. (2014). DZHW-Studienberechtigtenpanel 2008. Aufbereitet durch Daniel, A., Hoffstätter, U., Huß, B. &amp; Scheller, P., doi: 10.21249/DZHW:gsl2008:1.0.0, gsl2008_o_1-0-0, released 2017. Hannover: FDZ-DZHW.</t>
   </si>
 </sst>
 </file>
@@ -556,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1582"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -5377,8 +5389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5411,8 +5423,12 @@
       <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -5433,6 +5449,9 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -5452,6 +5471,9 @@
       </c>
       <c r="F3">
         <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
